--- a/isitword test/ref/wordorderth_full.xlsx
+++ b/isitword test/ref/wordorderth_full.xlsx
@@ -468,16 +468,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>อำกัพ</t>
+          <t>จัณกทอร</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>word/wordth0443.png</t>
+          <t>word/wordth0893.png</t>
         </is>
       </c>
     </row>
@@ -486,19 +486,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ลูกแพร์</t>
+          <t>ขนาผฟีล</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>word/wordth0231.png</t>
+          <t>word/wordth0283.png</t>
         </is>
       </c>
     </row>
@@ -510,16 +510,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>โงำลพ</t>
+          <t>ยูกนง</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>word/wordth0942.png</t>
+          <t>word/wordth0872.png</t>
         </is>
       </c>
     </row>
@@ -528,19 +528,19 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>โซฟา</t>
+          <t>กงุ้</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>word/wordth0511.png</t>
+          <t>word/wordth0682.png</t>
         </is>
       </c>
     </row>
@@ -552,16 +552,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>นอมห</t>
+          <t>กหืยอเ</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>word/wordth0632.png</t>
+          <t>word/wordth0112.png</t>
         </is>
       </c>
     </row>
@@ -570,19 +570,19 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ไม้เท้า</t>
+          <t>เกนีทน</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>word/wordth0241.png</t>
+          <t>word/wordth0113.png</t>
         </is>
       </c>
     </row>
@@ -591,19 +591,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>แรคคูน</t>
+          <t>กกุคี้</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>word/wordth0951.png</t>
+          <t>word/wordth0712.png</t>
         </is>
       </c>
     </row>
@@ -615,16 +615,16 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>หนนา</t>
+          <t>ลุนทา</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>word/wordth0073.png</t>
+          <t>word/wordth0443.png</t>
         </is>
       </c>
     </row>
@@ -633,19 +633,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>คันธนู</t>
+          <t>ว่าตนแ</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>word/wordth0091.png</t>
+          <t>word/wordth0822.png</t>
         </is>
       </c>
     </row>
@@ -657,16 +657,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>นดิ</t>
+          <t>ขัวองญข</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>word/wordth0272.png</t>
+          <t>word/wordth0282.png</t>
         </is>
       </c>
     </row>
@@ -678,16 +678,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ยางลบ</t>
+          <t>ลูกแพร์</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>word/wordth0661.png</t>
+          <t>word/wordth0231.png</t>
         </is>
       </c>
     </row>
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>มนเจร</t>
+          <t>นอมห</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>word/wordth0483.png</t>
+          <t>word/wordth0632.png</t>
         </is>
       </c>
     </row>
@@ -717,19 +717,19 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>อำนฟ้ง</t>
+          <t>คุบริ้</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>word/wordth0702.png</t>
+          <t>word/wordth0713.png</t>
         </is>
       </c>
     </row>
@@ -741,16 +741,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>กุ้ง</t>
+          <t>รถบัส</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>word/wordth0681.png</t>
+          <t>word/wordth0011.png</t>
         </is>
       </c>
     </row>
@@ -759,19 +759,19 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>บายงล</t>
+          <t>สยึนบ</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>word/wordth0662.png</t>
+          <t>word/wordth0413.png</t>
         </is>
       </c>
     </row>
@@ -780,19 +780,19 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>เหยือก</t>
+          <t>มสอ</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>word/wordth0111.png</t>
+          <t>word/wordth0642.png</t>
         </is>
       </c>
     </row>
@@ -801,19 +801,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>มวแ</t>
+          <t>ปลบกน</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>word/wordth0032.png</t>
+          <t>word/wordth0063.png</t>
         </is>
       </c>
     </row>
@@ -822,19 +822,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ลูงภพ</t>
+          <t>ขเดมัข็</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>word/wordth0523.png</t>
+          <t>word/wordth0312.png</t>
         </is>
       </c>
     </row>
@@ -846,16 +846,16 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ลูกศร</t>
+          <t>โดนัท</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>word/wordth0521.png</t>
+          <t>word/wordth0461.png</t>
         </is>
       </c>
     </row>
@@ -864,19 +864,19 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ขเดมัข็</t>
+          <t>โผฝบ</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>word/wordth0312.png</t>
+          <t>word/wordth0513.png</t>
         </is>
       </c>
     </row>
@@ -906,19 +906,19 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>เน้บลีต</t>
+          <t>อลราลกิ</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>word/wordth0313.png</t>
+          <t>word/wordth0962.png</t>
         </is>
       </c>
     </row>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>น้ำหอม</t>
+          <t>เข็มขัด</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>word/wordth0881.png</t>
+          <t>word/wordth0311.png</t>
         </is>
       </c>
     </row>
@@ -948,19 +948,19 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ค้างคาว</t>
+          <t>ฟีราย</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>word/wordth0101.png</t>
+          <t>word/wordth0942.png</t>
         </is>
       </c>
     </row>
@@ -969,19 +969,19 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>รัถสบ</t>
+          <t>มนเจร</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>word/wordth0012.png</t>
+          <t>word/wordth0483.png</t>
         </is>
       </c>
     </row>
@@ -990,19 +990,19 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>กงุ้</t>
+          <t>ไย้นทีล</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>word/wordth0682.png</t>
+          <t>word/wordth0243.png</t>
         </is>
       </c>
     </row>
@@ -1014,16 +1014,16 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ของขวัญ</t>
+          <t>นกยูง</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>word/wordth0281.png</t>
+          <t>word/wordth0871.png</t>
         </is>
       </c>
     </row>
@@ -1032,19 +1032,19 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ดีย</t>
+          <t>โฟซา</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>word/wordth0273.png</t>
+          <t>word/wordth0512.png</t>
         </is>
       </c>
     </row>
@@ -1056,16 +1056,16 @@
         <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>สวก</t>
+          <t>หวึ</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>word/wordth0643.png</t>
+          <t>word/wordth0273.png</t>
         </is>
       </c>
     </row>
@@ -1074,19 +1074,19 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>กีลึ</t>
+          <t>สัหอืนง</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>word/wordth0303.png</t>
+          <t>word/wordth0222.png</t>
         </is>
       </c>
     </row>
@@ -1098,16 +1098,16 @@
         <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>กบคีนรอ</t>
+          <t>ลูนธาน์</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>word/wordth0963.png</t>
+          <t>word/wordth0233.png</t>
         </is>
       </c>
     </row>
@@ -1116,19 +1116,19 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>โฟซา</t>
+          <t>มะนาว</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>word/wordth0512.png</t>
+          <t>word/wordth0481.png</t>
         </is>
       </c>
     </row>
@@ -1137,19 +1137,19 @@
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>แคกขุย</t>
+          <t>คาค้วาง</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>word/wordth0953.png</t>
+          <t>word/wordth0102.png</t>
         </is>
       </c>
     </row>
@@ -1161,16 +1161,16 @@
         <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>แย้บคา</t>
+          <t>สวก</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>word/wordth0823.png</t>
+          <t>word/wordth0643.png</t>
         </is>
       </c>
     </row>
@@ -1179,19 +1179,19 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ดิน</t>
+          <t>หกันพีบ</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>word/wordth0271.png</t>
+          <t>word/wordth0223.png</t>
         </is>
       </c>
     </row>
@@ -1200,19 +1200,19 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ลูนธาน์</t>
+          <t>อิฐ</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>word/wordth0233.png</t>
+          <t>word/wordth0421.png</t>
         </is>
       </c>
     </row>
@@ -1221,19 +1221,19 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>คุกกี้</t>
+          <t>รัถสบ</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>word/wordth0711.png</t>
+          <t>word/wordth0012.png</t>
         </is>
       </c>
     </row>
@@ -1242,19 +1242,19 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>สัหอืนง</t>
+          <t>แว่นตา</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>word/wordth0222.png</t>
+          <t>word/wordth0821.png</t>
         </is>
       </c>
     </row>
@@ -1263,19 +1263,19 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>เกนีทน</t>
+          <t>มวแ</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>word/wordth0113.png</t>
+          <t>word/wordth0032.png</t>
         </is>
       </c>
     </row>
@@ -1284,19 +1284,19 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>นี้นยาค</t>
+          <t>กุ้ง</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>word/wordth0883.png</t>
+          <t>word/wordth0681.png</t>
         </is>
       </c>
     </row>
@@ -1308,16 +1308,16 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ดอกไม้</t>
+          <t>ยางลบ</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>word/wordth0501.png</t>
+          <t>word/wordth0661.png</t>
         </is>
       </c>
     </row>
@@ -1329,16 +1329,16 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ะมาวน</t>
+          <t>ฐอิ</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>word/wordth0482.png</t>
+          <t>word/wordth0422.png</t>
         </is>
       </c>
     </row>
@@ -1347,19 +1347,19 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ท้เาไม้</t>
+          <t>โบลม</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>word/wordth0242.png</t>
+          <t>word/wordth0933.png</t>
         </is>
       </c>
     </row>
@@ -1371,16 +1371,16 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>หมวก</t>
+          <t>คุกกี้</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>word/wordth0071.png</t>
+          <t>word/wordth0711.png</t>
         </is>
       </c>
     </row>
@@ -1389,19 +1389,19 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
         <v>64</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>มสอ</t>
+          <t>สมอ</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>word/wordth0642.png</t>
+          <t>word/wordth0641.png</t>
         </is>
       </c>
     </row>
@@ -1410,19 +1410,19 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>หนตบ</t>
+          <t>น้ำหอม</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>word/wordth0633.png</t>
+          <t>word/wordth0881.png</t>
         </is>
       </c>
     </row>
@@ -1431,19 +1431,19 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ขัวองญข</t>
+          <t>นดถูค</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>word/wordth0282.png</t>
+          <t>word/wordth0873.png</t>
         </is>
       </c>
     </row>
@@ -1455,16 +1455,16 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ไย้นทีล</t>
+          <t>แรน</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>word/wordth0243.png</t>
+          <t>word/wordth0033.png</t>
         </is>
       </c>
     </row>
@@ -1473,19 +1473,19 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>แมว</t>
+          <t>รูคนคแ</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>word/wordth0031.png</t>
+          <t>word/wordth0952.png</t>
         </is>
       </c>
     </row>
@@ -1494,19 +1494,19 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ฟวยวิ้บ</t>
+          <t>เหยือก</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>word/wordth0703.png</t>
+          <t>word/wordth0111.png</t>
         </is>
       </c>
     </row>
@@ -1515,19 +1515,19 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>รพท้น</t>
+          <t>ค้างคาว</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>word/wordth0013.png</t>
+          <t>word/wordth0101.png</t>
         </is>
       </c>
     </row>
@@ -1536,19 +1536,19 @@
         <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>หวมก</t>
+          <t>ลูกอม</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>word/wordth0072.png</t>
+          <t>word/wordth0441.png</t>
         </is>
       </c>
     </row>
@@ -1560,16 +1560,16 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>นกยูง</t>
+          <t>กอริลลา</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>word/wordth0871.png</t>
+          <t>word/wordth0961.png</t>
         </is>
       </c>
     </row>
@@ -1578,19 +1578,19 @@
         <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>รูฟฝื้อ</t>
+          <t>วหี</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>word/wordth0613.png</t>
+          <t>word/wordth0272.png</t>
         </is>
       </c>
     </row>
@@ -1599,19 +1599,19 @@
         <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>แก๊ม</t>
+          <t>หมอน</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>word/wordth0753.png</t>
+          <t>word/wordth0631.png</t>
         </is>
       </c>
     </row>
@@ -1620,19 +1620,19 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>รลศกู</t>
+          <t>ยอนวบ</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>word/wordth0522.png</t>
+          <t>word/wordth0663.png</t>
         </is>
       </c>
     </row>
@@ -1641,19 +1641,19 @@
         <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>เข็มขัด</t>
+          <t>นี้นยาค</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>word/wordth0311.png</t>
+          <t>word/wordth0883.png</t>
         </is>
       </c>
     </row>
@@ -1662,19 +1662,19 @@
         <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>กกุคี้</t>
+          <t>กบคีนรอ</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>word/wordth0712.png</t>
+          <t>word/wordth0963.png</t>
         </is>
       </c>
     </row>
@@ -1683,19 +1683,19 @@
         <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>รูปปั้น</t>
+          <t>นุง่อ</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>word/wordth0611.png</t>
+          <t>word/wordth0522.png</t>
         </is>
       </c>
     </row>
@@ -1704,19 +1704,19 @@
         <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ปากกา</t>
+          <t>ดวลโข้</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>word/wordth0061.png</t>
+          <t>word/wordth0503.png</t>
         </is>
       </c>
     </row>
@@ -1728,16 +1728,16 @@
         <v>3</v>
       </c>
       <c r="C62" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>กู่บ</t>
+          <t>รูฟฝื้อ</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>word/wordth0683.png</t>
+          <t>word/wordth0613.png</t>
         </is>
       </c>
     </row>
@@ -1746,19 +1746,19 @@
         <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>แม็ก</t>
+          <t>ดทนัโ</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>word/wordth0751.png</t>
+          <t>word/wordth0462.png</t>
         </is>
       </c>
     </row>
@@ -1767,19 +1767,19 @@
         <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>เกี๊ยน</t>
+          <t>รูปปั้น</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>word/wordth0083.png</t>
+          <t>word/wordth0611.png</t>
         </is>
       </c>
     </row>
@@ -1788,19 +1788,19 @@
         <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>สยึนบ</t>
+          <t>ไม้เท้า</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>word/wordth0413.png</t>
+          <t>word/wordth0241.png</t>
         </is>
       </c>
     </row>
@@ -1809,19 +1809,19 @@
         <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>รถบัส</t>
+          <t>นรักายจ</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>word/wordth0011.png</t>
+          <t>word/wordth0892.png</t>
         </is>
       </c>
     </row>
@@ -1830,19 +1830,19 @@
         <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>คุบริ้</t>
+          <t>เรือ</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>word/wordth0713.png</t>
+          <t>word/wordth0301.png</t>
         </is>
       </c>
     </row>
@@ -1851,19 +1851,19 @@
         <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ยูกนง</t>
+          <t>โลมา</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>word/wordth0872.png</t>
+          <t>word/wordth0931.png</t>
         </is>
       </c>
     </row>
@@ -1872,19 +1872,19 @@
         <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>พูก์แรล</t>
+          <t>ดอกไม้</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>word/wordth0232.png</t>
+          <t>word/wordth0501.png</t>
         </is>
       </c>
     </row>
@@ -1896,16 +1896,16 @@
         <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>นดถูค</t>
+          <t>แย้บคา</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>word/wordth0873.png</t>
+          <t>word/wordth0823.png</t>
         </is>
       </c>
     </row>
@@ -1914,19 +1914,19 @@
         <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ฐอิ</t>
+          <t>หวี</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>word/wordth0422.png</t>
+          <t>word/wordth0271.png</t>
         </is>
       </c>
     </row>
@@ -1935,19 +1935,19 @@
         <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>กีวี</t>
+          <t>อตู๊บ</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>word/wordth0301.png</t>
+          <t>word/wordth0523.png</t>
         </is>
       </c>
     </row>
@@ -1956,19 +1956,19 @@
         <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>พำนัอ</t>
+          <t>หนังสือ</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>word/wordth0442.png</t>
+          <t>word/wordth0221.png</t>
         </is>
       </c>
     </row>
@@ -1980,16 +1980,16 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ลำโพง</t>
+          <t>ปากกา</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>word/wordth0941.png</t>
+          <t>word/wordth0061.png</t>
         </is>
       </c>
     </row>
@@ -2001,16 +2001,16 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>กหืยอเ</t>
+          <t>อืเร</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>word/wordth0112.png</t>
+          <t>word/wordth0302.png</t>
         </is>
       </c>
     </row>
@@ -2019,19 +2019,19 @@
         <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ว่าตนแ</t>
+          <t>โซฟา</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>word/wordth0822.png</t>
+          <t>word/wordth0511.png</t>
         </is>
       </c>
     </row>
@@ -2043,16 +2043,16 @@
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>รูคนคแ</t>
+          <t>ดก้ไอม</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>word/wordth0952.png</t>
+          <t>word/wordth0502.png</t>
         </is>
       </c>
     </row>
@@ -2061,19 +2061,19 @@
         <v>1</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78" t="n">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>สมอ</t>
+          <t>แคกขุย</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>word/wordth0641.png</t>
+          <t>word/wordth0953.png</t>
         </is>
       </c>
     </row>
@@ -2085,16 +2085,16 @@
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>อำพัน</t>
+          <t>แม็ก</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>word/wordth0441.png</t>
+          <t>word/wordth0751.png</t>
         </is>
       </c>
     </row>
@@ -2103,19 +2103,19 @@
         <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>แสนืร</t>
+          <t>แรคคูน</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>word/wordth0263.png</t>
+          <t>word/wordth0951.png</t>
         </is>
       </c>
     </row>
@@ -2124,19 +2124,19 @@
         <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>โดนัท</t>
+          <t>ล่เอืย</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>word/wordth0461.png</t>
+          <t>word/wordth0082.png</t>
         </is>
       </c>
     </row>
@@ -2145,19 +2145,19 @@
         <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ดทนัโ</t>
+          <t>แก๊ม</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>word/wordth0462.png</t>
+          <t>word/wordth0753.png</t>
         </is>
       </c>
     </row>
@@ -2166,19 +2166,19 @@
         <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>นวาส่</t>
+          <t>ของขวัญ</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>word/wordth0412.png</t>
+          <t>word/wordth0281.png</t>
         </is>
       </c>
     </row>
@@ -2187,19 +2187,19 @@
         <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ถั่วงอก</t>
+          <t>อิฎ</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>word/wordth0891.png</t>
+          <t>word/wordth0423.png</t>
         </is>
       </c>
     </row>
@@ -2211,16 +2211,16 @@
         <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>หกันพีบ</t>
+          <t>โตคีก</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>word/wordth0223.png</t>
+          <t>word/wordth0463.png</t>
         </is>
       </c>
     </row>
@@ -2229,19 +2229,19 @@
         <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>หนังสือ</t>
+          <t>รพท้น</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>word/wordth0221.png</t>
+          <t>word/wordth0013.png</t>
         </is>
       </c>
     </row>
@@ -2250,19 +2250,19 @@
         <v>1</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ยอนวบ</t>
+          <t>อำนฟ้ง</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>word/wordth0663.png</t>
+          <t>word/wordth0702.png</t>
         </is>
       </c>
     </row>
@@ -2271,19 +2271,19 @@
         <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ค้นถาพล</t>
+          <t>หมวก</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>word/wordth0103.png</t>
+          <t>word/wordth0071.png</t>
         </is>
       </c>
     </row>
@@ -2292,19 +2292,19 @@
         <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>นกแร้ง</t>
+          <t>หวมก</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>word/wordth0931.png</t>
+          <t>word/wordth0072.png</t>
         </is>
       </c>
     </row>
@@ -2313,19 +2313,19 @@
         <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>แจกัน</t>
+          <t>ท้เาไม้</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>word/wordth0261.png</t>
+          <t>word/wordth0242.png</t>
         </is>
       </c>
     </row>
@@ -2334,19 +2334,19 @@
         <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ฟองน้ำ</t>
+          <t>แสนืร</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>word/wordth0701.png</t>
+          <t>word/wordth0263.png</t>
         </is>
       </c>
     </row>
@@ -2355,19 +2355,19 @@
         <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ปลบกน</t>
+          <t>พูก์แรล</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>word/wordth0063.png</t>
+          <t>word/wordth0232.png</t>
         </is>
       </c>
     </row>
@@ -2379,16 +2379,16 @@
         <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>อลราลกิ</t>
+          <t>แมก็</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>word/wordth0962.png</t>
+          <t>word/wordth0752.png</t>
         </is>
       </c>
     </row>
@@ -2400,16 +2400,16 @@
         <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>งก้แรน</t>
+          <t>าากปก</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>word/wordth0932.png</t>
+          <t>word/wordth0062.png</t>
         </is>
       </c>
     </row>
@@ -2421,16 +2421,16 @@
         <v>2</v>
       </c>
       <c r="C95" t="n">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>นคูนัธ</t>
+          <t>มโลา</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>word/wordth0092.png</t>
+          <t>word/wordth0932.png</t>
         </is>
       </c>
     </row>
@@ -2439,19 +2439,19 @@
         <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>แรน</t>
+          <t>ะมาวน</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>word/wordth0033.png</t>
+          <t>word/wordth0482.png</t>
         </is>
       </c>
     </row>
@@ -2460,19 +2460,19 @@
         <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>โตคีก</t>
+          <t>ฟองน้ำ</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>word/wordth0463.png</t>
+          <t>word/wordth0701.png</t>
         </is>
       </c>
     </row>
@@ -2481,19 +2481,19 @@
         <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>นาจรึก</t>
+          <t>บายงล</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>word/wordth0933.png</t>
+          <t>word/wordth0662.png</t>
         </is>
       </c>
     </row>
@@ -2505,16 +2505,16 @@
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>กอริลลา</t>
+          <t>แจกัน</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>word/wordth0961.png</t>
+          <t>word/wordth0261.png</t>
         </is>
       </c>
     </row>
@@ -2523,19 +2523,19 @@
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>าากปก</t>
+          <t>คัรหบุ</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>word/wordth0062.png</t>
+          <t>word/wordth0093.png</t>
         </is>
       </c>
     </row>
@@ -2544,19 +2544,19 @@
         <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ถี้บเยข</t>
+          <t>ป้ปันรู</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>word/wordth0893.png</t>
+          <t>word/wordth0612.png</t>
         </is>
       </c>
     </row>
@@ -2565,19 +2565,19 @@
         <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>หมอน</t>
+          <t>เกี๊ยน</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>word/wordth0631.png</t>
+          <t>word/wordth0083.png</t>
         </is>
       </c>
     </row>
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>อิฐ</t>
+          <t>เลื่อย</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>word/wordth0421.png</t>
+          <t>word/wordth0081.png</t>
         </is>
       </c>
     </row>
@@ -2607,19 +2607,19 @@
         <v>1</v>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ดวลโข้</t>
+          <t>กมลอู</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>word/wordth0503.png</t>
+          <t>word/wordth0442.png</t>
         </is>
       </c>
     </row>
@@ -2631,16 +2631,16 @@
         <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ลันใยบ</t>
+          <t>เน้บลีต</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>word/wordth0943.png</t>
+          <t>word/wordth0313.png</t>
         </is>
       </c>
     </row>
@@ -2652,16 +2652,16 @@
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>แว่นตา</t>
+          <t>จักรยาน</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>word/wordth0821.png</t>
+          <t>word/wordth0891.png</t>
         </is>
       </c>
     </row>
@@ -2670,19 +2670,19 @@
         <v>1</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C107" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>มะนาว</t>
+          <t>ฟวยวิ้บ</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>word/wordth0481.png</t>
+          <t>word/wordth0703.png</t>
         </is>
       </c>
     </row>
@@ -2691,19 +2691,19 @@
         <v>1</v>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>น้มอหำ</t>
+          <t>กู่บ</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>word/wordth0882.png</t>
+          <t>word/wordth0683.png</t>
         </is>
       </c>
     </row>
@@ -2712,19 +2712,19 @@
         <v>1</v>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ว่ถกอัง</t>
+          <t>ค้นถาพล</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>word/wordth0892.png</t>
+          <t>word/wordth0103.png</t>
         </is>
       </c>
     </row>
@@ -2733,19 +2733,19 @@
         <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ดก้ไอม</t>
+          <t>ยีหาฝ</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>word/wordth0502.png</t>
+          <t>word/wordth0943.png</t>
         </is>
       </c>
     </row>
@@ -2754,19 +2754,19 @@
         <v>1</v>
       </c>
       <c r="B111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>คัรหบุ</t>
+          <t>แมว</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>word/wordth0093.png</t>
+          <t>word/wordth0031.png</t>
         </is>
       </c>
     </row>
@@ -2778,16 +2778,16 @@
         <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>โผฝบ</t>
+          <t>หนตบ</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>word/wordth0513.png</t>
+          <t>word/wordth0633.png</t>
         </is>
       </c>
     </row>
@@ -2796,19 +2796,19 @@
         <v>1</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>เลื่อย</t>
+          <t>นคูนัธ</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>word/wordth0081.png</t>
+          <t>word/wordth0092.png</t>
         </is>
       </c>
     </row>
@@ -2817,19 +2817,19 @@
         <v>1</v>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>ป้ปันรู</t>
+          <t>หนนา</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>word/wordth0612.png</t>
+          <t>word/wordth0073.png</t>
         </is>
       </c>
     </row>
@@ -2841,16 +2841,16 @@
         <v>2</v>
       </c>
       <c r="C115" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>แมก็</t>
+          <t>นวาส่</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>word/wordth0752.png</t>
+          <t>word/wordth0412.png</t>
         </is>
       </c>
     </row>
@@ -2859,19 +2859,19 @@
         <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>อิฎ</t>
+          <t>คันธนู</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>word/wordth0423.png</t>
+          <t>word/wordth0091.png</t>
         </is>
       </c>
     </row>
@@ -2880,19 +2880,19 @@
         <v>1</v>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>วกีี</t>
+          <t>ยีราฟ</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>word/wordth0302.png</t>
+          <t>word/wordth0941.png</t>
         </is>
       </c>
     </row>
@@ -2901,19 +2901,19 @@
         <v>1</v>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>คาค้วาง</t>
+          <t>องุ่น</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>word/wordth0102.png</t>
+          <t>word/wordth0521.png</t>
         </is>
       </c>
     </row>
@@ -2925,16 +2925,16 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ล่เอืย</t>
+          <t>น้มอหำ</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>word/wordth0082.png</t>
+          <t>word/wordth0882.png</t>
         </is>
       </c>
     </row>
@@ -2967,16 +2967,16 @@
         <v>3</v>
       </c>
       <c r="C121" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ขนาผฟีล</t>
+          <t>เติน</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>word/wordth0283.png</t>
+          <t>word/wordth0303.png</t>
         </is>
       </c>
     </row>
